--- a/PJ管理/01.成果物/06.T_テスト／追加/1.仕様書/テスト仕様書兼報告書_DMS30402_外部システムIF(複数図番指定)画面_rev2.0.xlsx
+++ b/PJ管理/01.成果物/06.T_テスト／追加/1.仕様書/テスト仕様書兼報告書_DMS30402_外部システムIF(複数図番指定)画面_rev2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Projects\03.JTEKT\00.プロジェクト別\09.2024年度DRASAPサーバ更新2024\30.設計ドキュメント\T_テスト／移行\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\06.T_テスト／追加\1.仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727F9B0F-3F23-47EC-B201-42BE10CFA824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048E012A-F406-4C66-A1FC-DE20F5D890DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="368" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="33120" windowHeight="18120" tabRatio="368" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="233">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -241,10 +241,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>8 170050024021 26981   2 090003</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>6  2 18021202248101  4 20010951</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -302,10 +298,6 @@
   </si>
   <si>
     <t>103739</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>402071</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -714,28 +706,6 @@
   </si>
   <si>
     <t>USER_MASTER.USER_ID=084160
-登録済み</t>
-    <rPh sb="27" eb="29">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ズミ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>USER_ID_CONVERSION.USER_ID=402071
-登録済み</t>
-    <rPh sb="34" eb="36">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ズミ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>USER_MASTER.USER_ID=402071
 登録済み</t>
     <rPh sb="27" eb="29">
       <t>トウロク</t>
@@ -1409,10 +1379,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>00402071</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>検索画面が起動し、以下の情報がセットされていること
 ・ログインユーザ情報
 　　職番：116442
@@ -1468,17 +1434,6 @@
       </rPr>
       <t>USER_ID_2</t>
     </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>USER_ID_CONVERSION.USER_ID_1=00402071
-登録済み</t>
-    <rPh sb="38" eb="40">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ズ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -2689,6 +2644,130 @@
     </rPh>
     <rPh sb="122" eb="124">
       <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DRASAP更新プロジェクト2024の機能改修部分の反映
+・パスワードの未設定チェック
+・パスワードの有効期限チェック
+・Hoko2449→JPWDRASOR01
+・Tomcat8→Tomcat9
+※複数図番指定側では、検索画面を呼び出すため、ハイフン付き図番も処理可能</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>カイシュウブブン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ミセッテイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ズバン</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ズバン</t>
+    </rPh>
+    <rPh sb="131" eb="135">
+      <t>ショリカノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>402071</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>400296</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>00402071</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>00400296</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;NULL&gt;</t>
+  </si>
+  <si>
+    <t>8 170050024021 26981   2 090003</t>
+  </si>
+  <si>
+    <t>仕様修正</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウシュウセイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2736,7 +2815,29 @@
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">
-・DRASAP側にユーザーが登録されていません
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・DRASAP側にユーザーが登録されていません</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+・ユーザID変換テーブルに外部システムのユーザIDが登録されていません
 </t>
     </r>
     <rPh sb="0" eb="2">
@@ -2754,65 +2855,139 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>DRASAP更新プロジェクト2024の機能改修部分の反映
-・パスワードの未設定チェック
-・パスワードの有効期限チェック
-・Hoko2449→JPWDRASOR01
-・Tomcat8→Tomcat9
-※複数図番指定側では、検索画面を呼び出すため、ハイフン付き図番も処理可能</t>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="21" eb="25">
-      <t>カイシュウブブン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>ミセッテイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>ズバン</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="126" eb="127">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>ズバン</t>
-    </rPh>
-    <rPh sb="131" eb="135">
-      <t>ショリカノウ</t>
+    <r>
+      <t>ユーザ管理マスターのパスワード設定日(USER_MASTER.PASSWD_UPD_DATE)＋パスワード有効期間日数(PWD_LMT_DAY)　</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;　ログイン日(システム日付)</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>USER_MASTER.USER_ID=</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>402071</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>400296
+登録済み</t>
+    </r>
+    <rPh sb="33" eb="35">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ズミ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>USER_ID_CONVERSION.USER_ID=</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>402071</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>400296
+登録済み</t>
+    </r>
+    <rPh sb="40" eb="42">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ズミ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>USER_ID_CONVERSION.USER_ID_1=</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>00402071</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>00400296
+登録済み</t>
+    </r>
+    <rPh sb="0" eb="50">
+      <t>トウロクズ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>馬睿智</t>
+    <rPh sb="0" eb="3">
+      <t>マエイチ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2825,7 +3000,7 @@
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2924,6 +3099,22 @@
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -3097,7 +3288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -3316,6 +3507,24 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3639,80 +3848,80 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="11.6" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="7.375" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.2109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.2109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.640625" style="61" customWidth="1"/>
-    <col min="4" max="4" width="15.78515625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="42.2109375" style="60" customWidth="1"/>
-    <col min="6" max="6" width="10.640625" style="61" customWidth="1"/>
-    <col min="7" max="7" width="15.78515625" style="37" customWidth="1"/>
-    <col min="8" max="16384" width="7.42578125" style="37"/>
+    <col min="1" max="1" width="3.25" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="61" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="37" customWidth="1"/>
+    <col min="5" max="5" width="42.25" style="60" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="61" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="37" customWidth="1"/>
+    <col min="8" max="16384" width="7.375" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
       <c r="A1" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
+    </row>
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
       <c r="A2" s="38">
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C2" s="40">
         <v>45561</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
     </row>
-    <row r="3" spans="1:7" s="50" customFormat="1" ht="81" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:7" s="50" customFormat="1" ht="84" x14ac:dyDescent="0.4">
       <c r="A3" s="38">
         <v>2</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C3" s="45">
         <v>45616</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F3" s="48"/>
       <c r="G3" s="49"/>
     </row>
-    <row r="4" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
       <c r="A4" s="38">
         <v>3</v>
       </c>
@@ -3723,7 +3932,7 @@
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
     </row>
-    <row r="5" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
       <c r="A5" s="38">
         <v>4</v>
       </c>
@@ -3734,7 +3943,7 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
     </row>
-    <row r="6" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
       <c r="A6" s="38">
         <v>5</v>
       </c>
@@ -3745,7 +3954,7 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
     </row>
-    <row r="7" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
       <c r="A7" s="38">
         <v>6</v>
       </c>
@@ -3756,7 +3965,7 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
     </row>
-    <row r="8" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
       <c r="A8" s="38">
         <v>7</v>
       </c>
@@ -3767,7 +3976,7 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
     </row>
-    <row r="9" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
       <c r="A9" s="38">
         <v>8</v>
       </c>
@@ -3778,7 +3987,7 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
     </row>
-    <row r="10" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
       <c r="A10" s="53">
         <v>9</v>
       </c>
@@ -3789,7 +3998,7 @@
       <c r="F10" s="57"/>
       <c r="G10" s="57"/>
     </row>
-    <row r="11" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
       <c r="A11" s="38">
         <v>10</v>
       </c>
@@ -3800,7 +4009,7 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
     </row>
-    <row r="12" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
       <c r="A12" s="38">
         <v>11</v>
       </c>
@@ -3811,7 +4020,7 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C13" s="59"/>
     </row>
   </sheetData>
@@ -3824,42 +4033,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A96"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="31.2109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="29.0703125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="37.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="43.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="44.7109375" style="1" customWidth="1"/>
-    <col min="11" max="17" width="46.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="84.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.2109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="45.78515625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="6.125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="31.25" style="1" customWidth="1"/>
+    <col min="4" max="5" width="29.125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="37.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="43.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="44.75" style="1" customWidth="1"/>
+    <col min="11" max="17" width="46.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="84.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.25" style="2" customWidth="1"/>
+    <col min="20" max="20" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.75" style="2" customWidth="1"/>
+    <col min="22" max="22" width="45.75" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.6" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:21" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="79" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+    </row>
+    <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="13" t="s">
         <v>15</v>
       </c>
@@ -3871,11 +4080,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="79" t="s">
+    <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="79"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
@@ -3887,32 +4096,32 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="78" t="s">
+    <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-    </row>
-    <row r="5" spans="1:10" ht="225" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="80" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+    </row>
+    <row r="5" spans="1:21" ht="225" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="21"/>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="74"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="65" t="s">
         <v>21</v>
       </c>
@@ -3921,13 +4130,13 @@
       <c r="G6" s="65"/>
       <c r="H6" s="65"/>
       <c r="I6" s="65"/>
-      <c r="J6" s="82" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="J6" s="88" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>23</v>
@@ -3939,93 +4148,93 @@
         <v>23</v>
       </c>
       <c r="E7" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="H7" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="I7" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="82"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="J7" s="88"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="29" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="29" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.65">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B10" s="17">
         <v>123456</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="25">
         <v>123456</v>
@@ -4034,222 +4243,226 @@
         <v>123456</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="29" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" s="29" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="29" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B13" s="17">
         <v>400250</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="17">
         <v>400250</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J13" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" s="29" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="77" t="s">
+        <v>222</v>
+      </c>
+      <c r="F15" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="G15" s="76" t="s">
+        <v>223</v>
+      </c>
+      <c r="H15" s="76" t="s">
+        <v>223</v>
+      </c>
+      <c r="I15" s="76" t="s">
+        <v>223</v>
+      </c>
+      <c r="J15" s="78" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A16" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="16" t="s">
+      <c r="D16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.65">
-      <c r="A16" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="21"/>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="75" t="s">
-        <v>85</v>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81" t="s">
+        <v>83</v>
       </c>
       <c r="F18" s="62" t="s">
         <v>20</v>
@@ -4258,10 +4471,10 @@
       <c r="H18" s="63"/>
       <c r="I18" s="64"/>
       <c r="J18" s="27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.65">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A19" s="22"/>
       <c r="B19" s="23" t="s">
         <v>23</v>
@@ -4270,242 +4483,242 @@
         <v>22</v>
       </c>
       <c r="D19" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="82"/>
+      <c r="F19" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="24" t="s">
+      <c r="G19" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="I19" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>66</v>
-      </c>
       <c r="J19" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="92.6" x14ac:dyDescent="0.65">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A20" s="20"/>
       <c r="B20" s="17">
         <v>123456</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G20" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="H20" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" s="25" t="s">
+      <c r="J20" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="J20" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="30.9" x14ac:dyDescent="0.65">
+    </row>
+    <row r="21" spans="1:22" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A21" s="20"/>
       <c r="B21" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.65">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A22" s="20"/>
       <c r="B22" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="30.9" x14ac:dyDescent="0.65">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A23" s="20"/>
       <c r="B23" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J23" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="30.9" x14ac:dyDescent="0.65">
+    </row>
+    <row r="24" spans="1:22" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A24" s="20"/>
       <c r="B24" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A25" s="20"/>
+      <c r="B25" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D25" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J24" s="28" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A25" s="20"/>
-      <c r="B25" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="17" t="s">
+      <c r="F25" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J25" s="28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="30.9" x14ac:dyDescent="0.65">
+    </row>
+    <row r="26" spans="1:22" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A26" s="20"/>
       <c r="B26" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>42</v>
-      </c>
       <c r="G26" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.65">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A27" s="20"/>
       <c r="B27" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="25"/>
@@ -4515,7 +4728,7 @@
       <c r="I27" s="25"/>
       <c r="J27" s="26"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>17</v>
       </c>
@@ -4525,17 +4738,17 @@
       <c r="C29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="77" t="s">
+      <c r="D29" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
@@ -4557,7 +4770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="123.45" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:22" ht="126" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>1</v>
       </c>
@@ -4565,49 +4778,49 @@
         <v>18</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S30" s="9"/>
       <c r="T30" s="10"/>
       <c r="U30" s="9"/>
       <c r="V30" s="11"/>
     </row>
-    <row r="31" spans="1:22" ht="138.9" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:22" ht="141.75" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>2</v>
       </c>
@@ -4622,26 +4835,32 @@
       <c r="J31" s="6"/>
       <c r="K31" s="7"/>
       <c r="L31" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O31" s="7"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="S31" s="9"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="9"/>
+        <v>126</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="T31" s="10">
+        <v>45644</v>
+      </c>
+      <c r="U31" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="V31" s="11"/>
     </row>
-    <row r="32" spans="1:22" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:22" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>3</v>
       </c>
@@ -4661,17 +4880,23 @@
       <c r="O32" s="7"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="R32" s="73" t="s">
-        <v>225</v>
-      </c>
-      <c r="S32" s="9"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="9"/>
+        <v>219</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="T32" s="10">
+        <v>45644</v>
+      </c>
+      <c r="U32" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="V32" s="11"/>
     </row>
-    <row r="33" spans="1:22" ht="138.9" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:22" ht="157.5" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>4</v>
       </c>
@@ -4683,20 +4908,20 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O33" s="7"/>
       <c r="P33" s="6"/>
@@ -4704,12 +4929,20 @@
       <c r="R33" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="S33" s="9"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="11"/>
-    </row>
-    <row r="34" spans="1:22" ht="92.6" x14ac:dyDescent="0.65">
+      <c r="S33" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="T33" s="10">
+        <v>45644</v>
+      </c>
+      <c r="U33" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="V33" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>5</v>
       </c>
@@ -4729,17 +4962,23 @@
       <c r="O34" s="7"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="R34" s="73" t="s">
-        <v>225</v>
-      </c>
-      <c r="S34" s="9"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="9"/>
+        <v>219</v>
+      </c>
+      <c r="S34" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="T34" s="10">
+        <v>45644</v>
+      </c>
+      <c r="U34" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="V34" s="11"/>
     </row>
-    <row r="35" spans="1:22" ht="138.9" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:22" ht="141.75" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>6</v>
       </c>
@@ -4748,38 +4987,38 @@
       <c r="D35" s="7"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K35" s="6"/>
       <c r="L35" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O35" s="7"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="68" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="S35" s="9"/>
       <c r="T35" s="10"/>
       <c r="U35" s="9"/>
       <c r="V35" s="11"/>
     </row>
-    <row r="36" spans="1:22" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:22" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>7</v>
       </c>
@@ -4799,17 +5038,23 @@
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="R36" s="73" t="s">
-        <v>225</v>
-      </c>
-      <c r="S36" s="9"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="9"/>
+        <v>219</v>
+      </c>
+      <c r="S36" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="T36" s="10">
+        <v>45644</v>
+      </c>
+      <c r="U36" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="V36" s="11"/>
     </row>
-    <row r="37" spans="1:22" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:22" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>8</v>
       </c>
@@ -4819,39 +5064,45 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="66" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H37" s="66" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="R37" s="67" t="s">
-        <v>218</v>
-      </c>
-      <c r="S37" s="9"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="9"/>
+        <v>212</v>
+      </c>
+      <c r="S37" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="T37" s="10">
+        <v>45644</v>
+      </c>
+      <c r="U37" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="V37" s="11"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>9</v>
       </c>
@@ -4872,14 +5123,20 @@
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="S38" s="9"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="9"/>
+        <v>213</v>
+      </c>
+      <c r="S38" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="T38" s="10">
+        <v>45644</v>
+      </c>
+      <c r="U38" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="V38" s="11"/>
     </row>
-    <row r="39" spans="1:22" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:22" ht="63" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>10</v>
       </c>
@@ -4889,10 +5146,10 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="66" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H39" s="66" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -4904,14 +5161,20 @@
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="67" t="s">
-        <v>215</v>
-      </c>
-      <c r="S39" s="9"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="9"/>
+        <v>209</v>
+      </c>
+      <c r="S39" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="T39" s="10">
+        <v>45644</v>
+      </c>
+      <c r="U39" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="V39" s="11"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>11</v>
       </c>
@@ -4932,14 +5195,20 @@
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="71" t="s">
-        <v>220</v>
-      </c>
-      <c r="S40" s="9"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="9"/>
+        <v>214</v>
+      </c>
+      <c r="S40" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="T40" s="10">
+        <v>45644</v>
+      </c>
+      <c r="U40" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="V40" s="11"/>
     </row>
-    <row r="41" spans="1:22" ht="293.14999999999998" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:22" ht="299.25" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>12</v>
       </c>
@@ -4960,14 +5229,14 @@
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="S41" s="9"/>
       <c r="T41" s="10"/>
       <c r="U41" s="9"/>
       <c r="V41" s="11"/>
     </row>
-    <row r="42" spans="1:22" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:22" ht="63" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <v>13</v>
       </c>
@@ -4987,17 +5256,17 @@
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="R42" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="S42" s="9"/>
       <c r="T42" s="10"/>
       <c r="U42" s="9"/>
       <c r="V42" s="11"/>
     </row>
-    <row r="43" spans="1:22" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:22" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
         <v>14</v>
       </c>
@@ -5017,17 +5286,17 @@
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="S43" s="9"/>
       <c r="T43" s="10"/>
       <c r="U43" s="9"/>
       <c r="V43" s="11"/>
     </row>
-    <row r="44" spans="1:22" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:22" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A44" s="5">
         <v>15</v>
       </c>
@@ -5044,22 +5313,22 @@
       <c r="L44" s="6"/>
       <c r="M44" s="7"/>
       <c r="N44" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="S44" s="9"/>
       <c r="T44" s="10"/>
       <c r="U44" s="9"/>
       <c r="V44" s="11"/>
     </row>
-    <row r="45" spans="1:22" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:22" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
         <v>16</v>
       </c>
@@ -5076,22 +5345,22 @@
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
       <c r="N45" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S45" s="9"/>
       <c r="T45" s="10"/>
       <c r="U45" s="9"/>
       <c r="V45" s="11"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A46" s="5">
         <v>17</v>
       </c>
@@ -5110,20 +5379,20 @@
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
       <c r="P46" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="S46" s="9"/>
       <c r="T46" s="10"/>
       <c r="U46" s="9"/>
       <c r="V46" s="11"/>
     </row>
-    <row r="47" spans="1:22" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:22" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A47" s="5">
         <v>18</v>
       </c>
@@ -5143,17 +5412,17 @@
       <c r="O47" s="6"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="S47" s="9"/>
       <c r="T47" s="10"/>
       <c r="U47" s="9"/>
       <c r="V47" s="11"/>
     </row>
-    <row r="48" spans="1:22" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:22" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A48" s="5">
         <v>19</v>
       </c>
@@ -5170,22 +5439,22 @@
       <c r="L48" s="6"/>
       <c r="M48" s="7"/>
       <c r="N48" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S48" s="9"/>
       <c r="T48" s="10"/>
       <c r="U48" s="9"/>
       <c r="V48" s="11"/>
     </row>
-    <row r="49" spans="1:22" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:22" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
         <v>20</v>
       </c>
@@ -5204,18 +5473,18 @@
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
       <c r="P49" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q49" s="7"/>
       <c r="R49" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="S49" s="9"/>
       <c r="T49" s="10"/>
       <c r="U49" s="9"/>
       <c r="V49" s="11"/>
     </row>
-    <row r="50" spans="1:22" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:22" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A50" s="5">
         <v>21</v>
       </c>
@@ -5235,17 +5504,17 @@
       <c r="O50" s="6"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="R50" s="8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="S50" s="9"/>
       <c r="T50" s="10"/>
       <c r="U50" s="9"/>
       <c r="V50" s="11"/>
     </row>
-    <row r="51" spans="1:22" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:22" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A51" s="5">
         <v>22</v>
       </c>
@@ -5262,22 +5531,22 @@
       <c r="L51" s="6"/>
       <c r="M51" s="7"/>
       <c r="N51" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
       <c r="R51" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="S51" s="9"/>
       <c r="T51" s="10"/>
       <c r="U51" s="9"/>
       <c r="V51" s="11"/>
     </row>
-    <row r="52" spans="1:22" ht="108" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:22" ht="110.25" x14ac:dyDescent="0.4">
       <c r="A52" s="5">
         <v>23</v>
       </c>
@@ -5294,22 +5563,22 @@
       <c r="L52" s="6"/>
       <c r="M52" s="7"/>
       <c r="N52" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="S52" s="9"/>
       <c r="T52" s="10"/>
       <c r="U52" s="9"/>
       <c r="V52" s="11"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A53" s="5">
         <v>24</v>
       </c>
@@ -5328,18 +5597,18 @@
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
       <c r="P53" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q53" s="7"/>
       <c r="R53" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="S53" s="9"/>
       <c r="T53" s="10"/>
       <c r="U53" s="9"/>
       <c r="V53" s="11"/>
     </row>
-    <row r="54" spans="1:22" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:22" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A54" s="5">
         <v>25</v>
       </c>
@@ -5359,17 +5628,17 @@
       <c r="O54" s="6"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="R54" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="S54" s="9"/>
       <c r="T54" s="10"/>
       <c r="U54" s="9"/>
       <c r="V54" s="11"/>
     </row>
-    <row r="55" spans="1:22" ht="123.45" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:22" ht="126" x14ac:dyDescent="0.4">
       <c r="A55" s="5">
         <v>26</v>
       </c>
@@ -5378,46 +5647,54 @@
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G55" s="66" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H55" s="66" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q55" s="6"/>
       <c r="R55" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="S55" s="9"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="9"/>
-      <c r="V55" s="11"/>
-    </row>
-    <row r="56" spans="1:22" ht="61.75" x14ac:dyDescent="0.65">
+        <v>142</v>
+      </c>
+      <c r="S55" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="T55" s="10">
+        <v>45644</v>
+      </c>
+      <c r="U55" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="V55" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="63" x14ac:dyDescent="0.4">
       <c r="A56" s="5">
         <v>27</v>
       </c>
@@ -5438,14 +5715,14 @@
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="S56" s="9"/>
       <c r="T56" s="10"/>
       <c r="U56" s="9"/>
       <c r="V56" s="11"/>
     </row>
-    <row r="57" spans="1:22" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:22" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A57" s="5">
         <v>28</v>
       </c>
@@ -5465,17 +5742,17 @@
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="R57" s="8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="S57" s="9"/>
       <c r="T57" s="10"/>
       <c r="U57" s="9"/>
       <c r="V57" s="11"/>
     </row>
-    <row r="58" spans="1:22" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:22" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A58" s="5">
         <v>29</v>
       </c>
@@ -5492,22 +5769,22 @@
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
       <c r="N58" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
       <c r="R58" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="S58" s="9"/>
       <c r="T58" s="10"/>
       <c r="U58" s="9"/>
       <c r="V58" s="11"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A59" s="5">
         <v>30</v>
       </c>
@@ -5526,18 +5803,18 @@
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
       <c r="P59" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q59" s="7"/>
       <c r="R59" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="S59" s="9"/>
       <c r="T59" s="10"/>
       <c r="U59" s="9"/>
       <c r="V59" s="11"/>
     </row>
-    <row r="60" spans="1:22" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:22" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A60" s="5">
         <v>31</v>
       </c>
@@ -5557,17 +5834,17 @@
       <c r="O60" s="6"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="R60" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="S60" s="9"/>
       <c r="T60" s="10"/>
       <c r="U60" s="9"/>
       <c r="V60" s="11"/>
     </row>
-    <row r="61" spans="1:22" ht="123.45" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:22" ht="126" x14ac:dyDescent="0.4">
       <c r="A61" s="5">
         <v>32</v>
       </c>
@@ -5576,44 +5853,52 @@
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G61" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="H61" s="66" t="s">
+        <v>227</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J61" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="G61" s="66" t="s">
-        <v>221</v>
-      </c>
-      <c r="H61" s="66" t="s">
-        <v>214</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O61" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="S61" s="9"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="9"/>
-      <c r="V61" s="11"/>
-    </row>
-    <row r="62" spans="1:22" ht="77.150000000000006" x14ac:dyDescent="0.65">
+        <v>156</v>
+      </c>
+      <c r="S61" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="T61" s="10">
+        <v>45644</v>
+      </c>
+      <c r="U61" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="V61" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A62" s="5">
         <v>33</v>
       </c>
@@ -5634,14 +5919,14 @@
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
       <c r="R62" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="S62" s="9"/>
       <c r="T62" s="10"/>
       <c r="U62" s="9"/>
       <c r="V62" s="11"/>
     </row>
-    <row r="63" spans="1:22" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:22" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A63" s="5">
         <v>34</v>
       </c>
@@ -5661,17 +5946,17 @@
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="R63" s="8" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="S63" s="9"/>
       <c r="T63" s="10"/>
       <c r="U63" s="9"/>
       <c r="V63" s="11"/>
     </row>
-    <row r="64" spans="1:22" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:22" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A64" s="5">
         <v>35</v>
       </c>
@@ -5688,22 +5973,22 @@
       <c r="L64" s="6"/>
       <c r="M64" s="7"/>
       <c r="N64" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
       <c r="R64" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="S64" s="9"/>
       <c r="T64" s="10"/>
       <c r="U64" s="9"/>
       <c r="V64" s="11"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A65" s="5">
         <v>36</v>
       </c>
@@ -5722,18 +6007,18 @@
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
       <c r="P65" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q65" s="7"/>
       <c r="R65" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="S65" s="9"/>
       <c r="T65" s="10"/>
       <c r="U65" s="9"/>
       <c r="V65" s="11"/>
     </row>
-    <row r="66" spans="1:22" ht="123.45" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:22" ht="126" x14ac:dyDescent="0.4">
       <c r="A66" s="5">
         <v>37</v>
       </c>
@@ -5742,44 +6027,52 @@
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G66" s="66" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H66" s="66" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K66" s="6"/>
       <c r="L66" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
       <c r="R66" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="S66" s="9"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="11"/>
-    </row>
-    <row r="67" spans="1:22" ht="61.75" x14ac:dyDescent="0.65">
+        <v>147</v>
+      </c>
+      <c r="S66" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="T66" s="10">
+        <v>45644</v>
+      </c>
+      <c r="U66" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="V66" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="63" x14ac:dyDescent="0.4">
       <c r="A67" s="5">
         <v>38</v>
       </c>
@@ -5800,14 +6093,14 @@
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
       <c r="R67" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="S67" s="9"/>
       <c r="T67" s="10"/>
       <c r="U67" s="9"/>
       <c r="V67" s="11"/>
     </row>
-    <row r="68" spans="1:22" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:22" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A68" s="5">
         <v>39</v>
       </c>
@@ -5827,17 +6120,17 @@
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="R68" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="S68" s="9"/>
       <c r="T68" s="10"/>
       <c r="U68" s="9"/>
       <c r="V68" s="11"/>
     </row>
-    <row r="69" spans="1:22" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:22" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A69" s="5">
         <v>40</v>
       </c>
@@ -5854,22 +6147,22 @@
       <c r="L69" s="6"/>
       <c r="M69" s="7"/>
       <c r="N69" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O69" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
       <c r="R69" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="S69" s="9"/>
       <c r="T69" s="10"/>
       <c r="U69" s="9"/>
       <c r="V69" s="11"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A70" s="5">
         <v>41</v>
       </c>
@@ -5888,18 +6181,18 @@
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
       <c r="P70" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q70" s="7"/>
       <c r="R70" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="S70" s="9"/>
       <c r="T70" s="10"/>
       <c r="U70" s="9"/>
       <c r="V70" s="11"/>
     </row>
-    <row r="71" spans="1:22" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:22" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A71" s="5">
         <v>42</v>
       </c>
@@ -5919,17 +6212,17 @@
       <c r="O71" s="6"/>
       <c r="P71" s="7"/>
       <c r="Q71" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="R71" s="8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="S71" s="9"/>
       <c r="T71" s="10"/>
       <c r="U71" s="9"/>
       <c r="V71" s="11"/>
     </row>
-    <row r="72" spans="1:22" ht="123.45" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:22" ht="126" x14ac:dyDescent="0.4">
       <c r="A72" s="5">
         <v>43</v>
       </c>
@@ -5938,44 +6231,52 @@
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G72" s="66" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H72" s="66" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K72" s="6"/>
       <c r="L72" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O72" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
       <c r="R72" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="S72" s="9"/>
-      <c r="T72" s="10"/>
-      <c r="U72" s="9"/>
-      <c r="V72" s="11"/>
-    </row>
-    <row r="73" spans="1:22" ht="61.75" x14ac:dyDescent="0.65">
+        <v>179</v>
+      </c>
+      <c r="S72" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="T72" s="10">
+        <v>45644</v>
+      </c>
+      <c r="U72" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="V72" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" ht="63" x14ac:dyDescent="0.4">
       <c r="A73" s="5">
         <v>44</v>
       </c>
@@ -5996,14 +6297,14 @@
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
       <c r="R73" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="S73" s="9"/>
       <c r="T73" s="10"/>
       <c r="U73" s="9"/>
       <c r="V73" s="11"/>
     </row>
-    <row r="74" spans="1:22" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:22" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A74" s="5">
         <v>45</v>
       </c>
@@ -6023,17 +6324,17 @@
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
       <c r="Q74" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="R74" s="8" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="S74" s="9"/>
       <c r="T74" s="10"/>
       <c r="U74" s="9"/>
       <c r="V74" s="11"/>
     </row>
-    <row r="75" spans="1:22" ht="108" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:22" ht="110.25" x14ac:dyDescent="0.4">
       <c r="A75" s="5">
         <v>46</v>
       </c>
@@ -6050,22 +6351,22 @@
       <c r="L75" s="6"/>
       <c r="M75" s="7"/>
       <c r="N75" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O75" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P75" s="6"/>
       <c r="Q75" s="6"/>
       <c r="R75" s="8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="S75" s="9"/>
       <c r="T75" s="10"/>
       <c r="U75" s="9"/>
       <c r="V75" s="11"/>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A76" s="5">
         <v>47</v>
       </c>
@@ -6084,18 +6385,18 @@
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
       <c r="P76" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Q76" s="7"/>
       <c r="R76" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="S76" s="9"/>
       <c r="T76" s="10"/>
       <c r="U76" s="9"/>
       <c r="V76" s="11"/>
     </row>
-    <row r="77" spans="1:22" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:22" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A77" s="5">
         <v>48</v>
       </c>
@@ -6115,17 +6416,17 @@
       <c r="O77" s="6"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="R77" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="S77" s="9"/>
       <c r="T77" s="10"/>
       <c r="U77" s="9"/>
       <c r="V77" s="11"/>
     </row>
-    <row r="78" spans="1:22" ht="138.9" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:22" ht="141.75" x14ac:dyDescent="0.4">
       <c r="A78" s="5">
         <v>49</v>
       </c>
@@ -6133,45 +6434,53 @@
       <c r="C78" s="7"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
-      <c r="F78" s="6" t="s">
-        <v>112</v>
+      <c r="F78" s="79" t="s">
+        <v>228</v>
       </c>
       <c r="G78" s="66" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H78" s="66" t="s">
-        <v>214</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J78" s="6" t="s">
-        <v>157</v>
+        <v>227</v>
+      </c>
+      <c r="I78" s="79" t="s">
+        <v>229</v>
+      </c>
+      <c r="J78" s="79" t="s">
+        <v>230</v>
       </c>
       <c r="K78" s="6"/>
       <c r="L78" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M78" s="32" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O78" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
       <c r="R78" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="S78" s="9"/>
-      <c r="T78" s="10"/>
-      <c r="U78" s="9"/>
-      <c r="V78" s="11"/>
-    </row>
-    <row r="79" spans="1:22" ht="30.9" x14ac:dyDescent="0.65">
+        <v>126</v>
+      </c>
+      <c r="S78" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="T78" s="10">
+        <v>45644</v>
+      </c>
+      <c r="U78" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="V78" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A79" s="5">
         <v>50</v>
       </c>
@@ -6191,17 +6500,17 @@
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
       <c r="Q79" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="R79" s="8" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="S79" s="9"/>
       <c r="T79" s="10"/>
       <c r="U79" s="9"/>
       <c r="V79" s="11"/>
     </row>
-    <row r="80" spans="1:22" ht="138.9" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:22" ht="141.75" x14ac:dyDescent="0.4">
       <c r="A80" s="5">
         <v>51</v>
       </c>
@@ -6212,28 +6521,28 @@
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
+      <c r="I80" s="79"/>
+      <c r="J80" s="79"/>
+      <c r="K80" s="79"/>
       <c r="L80" s="6"/>
       <c r="M80" s="7"/>
       <c r="N80" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O80" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
       <c r="R80" s="68" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="S80" s="9"/>
       <c r="T80" s="10"/>
       <c r="U80" s="9"/>
       <c r="V80" s="11"/>
     </row>
-    <row r="81" spans="1:22" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:22" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A81" s="5">
         <v>52</v>
       </c>
@@ -6253,17 +6562,17 @@
       <c r="O81" s="6"/>
       <c r="P81" s="6"/>
       <c r="Q81" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="R81" s="8" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="S81" s="9"/>
       <c r="T81" s="10"/>
       <c r="U81" s="9"/>
       <c r="V81" s="11"/>
     </row>
-    <row r="82" spans="1:22" ht="123.45" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:22" ht="126" x14ac:dyDescent="0.4">
       <c r="A82" s="5">
         <v>53</v>
       </c>
@@ -6272,44 +6581,52 @@
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G82" s="66" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H82" s="66" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K82" s="6"/>
       <c r="L82" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M82" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O82" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P82" s="6"/>
       <c r="Q82" s="6"/>
       <c r="R82" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="S82" s="9"/>
-      <c r="T82" s="10"/>
-      <c r="U82" s="9"/>
-      <c r="V82" s="11"/>
-    </row>
-    <row r="83" spans="1:22" ht="61.75" x14ac:dyDescent="0.65">
+        <v>148</v>
+      </c>
+      <c r="S82" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="T82" s="10">
+        <v>45644</v>
+      </c>
+      <c r="U82" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="V82" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" ht="63" x14ac:dyDescent="0.4">
       <c r="A83" s="5">
         <v>54</v>
       </c>
@@ -6330,14 +6647,14 @@
       <c r="P83" s="6"/>
       <c r="Q83" s="6"/>
       <c r="R83" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="S83" s="9"/>
       <c r="T83" s="10"/>
       <c r="U83" s="9"/>
       <c r="V83" s="11"/>
     </row>
-    <row r="84" spans="1:22" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:22" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A84" s="5">
         <v>55</v>
       </c>
@@ -6357,17 +6674,17 @@
       <c r="O84" s="6"/>
       <c r="P84" s="6"/>
       <c r="Q84" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="R84" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="S84" s="9"/>
       <c r="T84" s="10"/>
       <c r="U84" s="9"/>
       <c r="V84" s="11"/>
     </row>
-    <row r="85" spans="1:22" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:22" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A85" s="5">
         <v>56</v>
       </c>
@@ -6384,22 +6701,22 @@
       <c r="L85" s="6"/>
       <c r="M85" s="7"/>
       <c r="N85" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O85" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
       <c r="R85" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="S85" s="9"/>
       <c r="T85" s="10"/>
       <c r="U85" s="9"/>
       <c r="V85" s="11"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A86" s="5">
         <v>57</v>
       </c>
@@ -6418,18 +6735,18 @@
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
       <c r="P86" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q86" s="7"/>
       <c r="R86" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="S86" s="9"/>
       <c r="T86" s="10"/>
       <c r="U86" s="9"/>
       <c r="V86" s="11"/>
     </row>
-    <row r="87" spans="1:22" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:22" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A87" s="5">
         <v>58</v>
       </c>
@@ -6449,67 +6766,75 @@
       <c r="O87" s="6"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="R87" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="S87" s="9"/>
       <c r="T87" s="10"/>
       <c r="U87" s="9"/>
       <c r="V87" s="11"/>
     </row>
-    <row r="88" spans="1:22" ht="293.14999999999998" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:22" ht="299.25" x14ac:dyDescent="0.4">
       <c r="A88" s="5">
         <v>59</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G88" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="H88" s="66" t="s">
+        <v>227</v>
+      </c>
+      <c r="I88" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G88" s="66" t="s">
-        <v>221</v>
-      </c>
-      <c r="H88" s="66" t="s">
-        <v>214</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="J88" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K88" s="6"/>
       <c r="L88" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M88" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="N88" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O88" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P88" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Q88" s="6"/>
       <c r="R88" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="S88" s="9"/>
-      <c r="T88" s="10"/>
-      <c r="U88" s="9"/>
-      <c r="V88" s="11"/>
-    </row>
-    <row r="89" spans="1:22" ht="92.6" x14ac:dyDescent="0.65">
+        <v>141</v>
+      </c>
+      <c r="S88" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="T88" s="10">
+        <v>45644</v>
+      </c>
+      <c r="U88" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="V88" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A89" s="5">
         <v>60</v>
       </c>
@@ -6530,14 +6855,14 @@
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
       <c r="R89" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="S89" s="9"/>
       <c r="T89" s="10"/>
       <c r="U89" s="9"/>
       <c r="V89" s="11"/>
     </row>
-    <row r="90" spans="1:22" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:22" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A90" s="5">
         <v>61</v>
       </c>
@@ -6557,17 +6882,17 @@
       <c r="O90" s="6"/>
       <c r="P90" s="6"/>
       <c r="Q90" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="R90" s="8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="S90" s="9"/>
       <c r="T90" s="10"/>
       <c r="U90" s="9"/>
       <c r="V90" s="11"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A91" s="5">
         <v>62</v>
       </c>
@@ -6586,18 +6911,18 @@
       <c r="N91" s="6"/>
       <c r="O91" s="6"/>
       <c r="P91" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Q91" s="7"/>
       <c r="R91" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="S91" s="9"/>
       <c r="T91" s="10"/>
       <c r="U91" s="9"/>
       <c r="V91" s="11"/>
     </row>
-    <row r="92" spans="1:22" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:22" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A92" s="5">
         <v>63</v>
       </c>
@@ -6617,17 +6942,17 @@
       <c r="O92" s="6"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="R92" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="S92" s="9"/>
       <c r="T92" s="10"/>
       <c r="U92" s="9"/>
       <c r="V92" s="11"/>
     </row>
-    <row r="93" spans="1:22" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:22" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A93" s="5">
         <v>64</v>
       </c>
@@ -6646,18 +6971,18 @@
       <c r="N93" s="6"/>
       <c r="O93" s="6"/>
       <c r="P93" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q93" s="6"/>
       <c r="R93" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="S93" s="9"/>
       <c r="T93" s="10"/>
       <c r="U93" s="9"/>
       <c r="V93" s="11"/>
     </row>
-    <row r="94" spans="1:22" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:22" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A94" s="5">
         <v>65</v>
       </c>
@@ -6677,17 +7002,17 @@
       <c r="O94" s="6"/>
       <c r="P94" s="7"/>
       <c r="Q94" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="R94" s="8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="S94" s="9"/>
       <c r="T94" s="10"/>
       <c r="U94" s="9"/>
       <c r="V94" s="11"/>
     </row>
-    <row r="95" spans="1:22" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:22" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A95" s="5">
         <v>66</v>
       </c>
@@ -6706,18 +7031,18 @@
       <c r="N95" s="6"/>
       <c r="O95" s="6"/>
       <c r="P95" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Q95" s="6"/>
       <c r="R95" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="S95" s="9"/>
       <c r="T95" s="10"/>
       <c r="U95" s="9"/>
       <c r="V95" s="11"/>
     </row>
-    <row r="96" spans="1:22" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:22" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A96" s="5">
         <v>67</v>
       </c>
@@ -6737,17 +7062,17 @@
       <c r="O96" s="6"/>
       <c r="P96" s="7"/>
       <c r="Q96" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="R96" s="8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="S96" s="9"/>
       <c r="T96" s="10"/>
       <c r="U96" s="9"/>
       <c r="V96" s="11"/>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
@@ -6771,7 +7096,7 @@
       <c r="U97" s="9"/>
       <c r="V97" s="11"/>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A98" s="5"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -6795,7 +7120,7 @@
       <c r="U98" s="9"/>
       <c r="V98" s="11"/>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A99" s="5"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -6839,6 +7164,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B932A2821493BB4AB71A0C79347FD678" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="528594b33024f52b27c0b5dcdc9dfa0b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xmlns:ns3="e8618445-b921-4c48-afdf-14e883213c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25e4712d85e376121aa3366c94b400a9" ns2:_="" ns3:_="">
     <xsd:import namespace="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
@@ -7061,34 +7406,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{358FE385-F4A6-484C-9436-58F94C02FA9E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66BED5F6-F9D3-4E06-B75C-33AF281A147C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66BED5F6-F9D3-4E06-B75C-33AF281A147C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D6BE94D-1459-4DD5-A719-D488160C536A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D6BE94D-1459-4DD5-A719-D488160C536A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{358FE385-F4A6-484C-9436-58F94C02FA9E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>